--- a/Documentacion/Anexo_Tablas_Parametricas.xlsx
+++ b/Documentacion/Anexo_Tablas_Parametricas.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergio/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergio/Google Drive/Universidad/UAI/2018/2do Cuatrimestre/Trabajo FInal/Remisapp/remisapp/Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163FF64B-A93B-9C4A-8394-064C4459DB1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B95A33-4EF8-724B-B8B2-9FE5710485C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{703C1913-A00A-4048-9319-C75C70719237}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla Parametros Sistemas" sheetId="1" r:id="rId1"/>
     <sheet name="Tipos de estado del viaje" sheetId="2" r:id="rId2"/>
+    <sheet name="Tipo Teléfonos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
-  <si>
-    <t>KM_VALOR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>KM_DIST_MIN</t>
   </si>
@@ -115,9 +113,6 @@
     <t>PERIODO_PUNTAJE</t>
   </si>
   <si>
-    <t>PERIODO_BENFICIOS</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -158,6 +153,51 @@
   </si>
   <si>
     <t>Periodo para evaluar los beneficios para socios</t>
+  </si>
+  <si>
+    <t>﻿KM_VALOR</t>
+  </si>
+  <si>
+    <t>PERIODO_BENEFICIOS</t>
+  </si>
+  <si>
+    <t>﻿3.45</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Fijo</t>
+  </si>
+  <si>
+    <t>Laboral</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>En Curso</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Reservado</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Grupo</t>
   </si>
 </sst>
 </file>
@@ -365,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,6 +434,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,9 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41512587-1583-BF47-9FB7-7E8055DDCD8B}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -723,32 +764,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -756,10 +797,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7">
         <v>32969556</v>
@@ -767,10 +808,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -778,32 +819,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>1500</v>
@@ -811,10 +852,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>1765</v>
@@ -822,87 +863,87 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="8">
         <v>43525</v>
@@ -910,21 +951,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>60</v>
@@ -932,10 +973,10 @@
     </row>
     <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9">
         <v>30</v>
@@ -948,12 +989,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50CDCEF-053B-4444-B649-F13D12FA44BF}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30F01AA-C761-3D47-81C0-78FC600989B0}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>